--- a/excel/finished/烧结/6#脱硫系统运行日报.xlsx
+++ b/excel/finished/烧结/6#脱硫系统运行日报.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="128">
   <si>
     <r>
       <rPr>
@@ -233,13 +233,7 @@
     <t>除雾器清洗： 次</t>
   </si>
   <si>
-    <t>早班报警次数</t>
-  </si>
-  <si>
-    <t>中班报警次数</t>
-  </si>
-  <si>
-    <t>晚班报警次数</t>
+    <t>平均值</t>
   </si>
   <si>
     <t>备注：</t>
@@ -470,12 +464,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -515,7 +509,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -529,8 +523,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -545,15 +561,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -566,23 +581,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="65"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -599,7 +599,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color indexed="65"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -607,21 +615,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -635,8 +628,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -689,8 +683,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
@@ -701,38 +725,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor theme="6" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor theme="9" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor theme="7" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor theme="5" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor theme="6" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
@@ -749,8 +743,92 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor theme="7" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
@@ -761,50 +839,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor theme="4" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor theme="7" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor theme="9" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor theme="9" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor theme="8" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
@@ -815,54 +851,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor theme="5" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor theme="5" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor theme="7" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1059,6 +1053,19 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="thin">
@@ -1404,6 +1411,30 @@
         <color theme="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1424,24 +1455,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1465,7 +1483,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1493,17 +1511,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1512,7 +1519,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="45">
@@ -1524,133 +1531,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="50">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="46">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="45">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="48">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="51">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="48">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="45">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1718,39 +1725,36 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1763,96 +1767,99 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1862,22 +1869,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1886,34 +1893,34 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2189,10 +2196,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BV32"/>
+  <dimension ref="A1:BV30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2724,9 +2731,8 @@
       <c r="BV4" s="76"/>
     </row>
     <row r="5" spans="1:74">
-      <c r="A5" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  0:00:00"</f>
-        <v>0:00:00</v>
+      <c r="A5" s="21">
+        <v>1</v>
       </c>
       <c r="B5" s="22" t="str">
         <f>IF(_sj6_day_all!A2="","",_sj6_day_all!A2)</f>
@@ -3015,9 +3021,8 @@
       </c>
     </row>
     <row r="6" spans="1:74">
-      <c r="A6" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  1:00:00"</f>
-        <v>1:00:00</v>
+      <c r="A6" s="21">
+        <v>2</v>
       </c>
       <c r="B6" s="23" t="str">
         <f>IF(_sj6_day_all!A3="","",_sj6_day_all!A3)</f>
@@ -3304,9 +3309,8 @@
       <c r="BV6" s="80"/>
     </row>
     <row r="7" spans="1:74">
-      <c r="A7" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  2:00:01"</f>
-        <v>2:00:01</v>
+      <c r="A7" s="21">
+        <v>3</v>
       </c>
       <c r="B7" s="23" t="str">
         <f>IF(_sj6_day_all!A4="","",_sj6_day_all!A4)</f>
@@ -3593,9 +3597,8 @@
       <c r="BV7" s="80"/>
     </row>
     <row r="8" spans="1:74">
-      <c r="A8" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  3:00:00"</f>
-        <v>3:00:00</v>
+      <c r="A8" s="21">
+        <v>4</v>
       </c>
       <c r="B8" s="23" t="str">
         <f>IF(_sj6_day_all!A5="","",_sj6_day_all!A5)</f>
@@ -3881,10 +3884,9 @@
       <c r="BU8" s="79"/>
       <c r="BV8" s="80"/>
     </row>
-    <row r="9" spans="1:74">
-      <c r="A9" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  4:00:01"</f>
-        <v>4:00:01</v>
+    <row r="9" ht="15" spans="1:74">
+      <c r="A9" s="21">
+        <v>5</v>
       </c>
       <c r="B9" s="23" t="str">
         <f>IF(_sj6_day_all!A6="","",_sj6_day_all!A6)</f>
@@ -4171,9 +4173,8 @@
       <c r="BV9" s="81"/>
     </row>
     <row r="10" spans="1:74">
-      <c r="A10" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  5:00:00"</f>
-        <v>5:00:00</v>
+      <c r="A10" s="21">
+        <v>6</v>
       </c>
       <c r="B10" s="23" t="str">
         <f>IF(_sj6_day_all!A7="","",_sj6_day_all!A7)</f>
@@ -4462,9 +4463,8 @@
       </c>
     </row>
     <row r="11" spans="1:74">
-      <c r="A11" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  6:00:01"</f>
-        <v>6:00:01</v>
+      <c r="A11" s="21">
+        <v>7</v>
       </c>
       <c r="B11" s="23" t="str">
         <f>IF(_sj6_day_all!A8="","",_sj6_day_all!A8)</f>
@@ -4751,9 +4751,8 @@
       <c r="BV11" s="80"/>
     </row>
     <row r="12" spans="1:74">
-      <c r="A12" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  7:00:01"</f>
-        <v>7:00:01</v>
+      <c r="A12" s="21">
+        <v>8</v>
       </c>
       <c r="B12" s="23" t="str">
         <f>IF(_sj6_day_all!A9="","",_sj6_day_all!A9)</f>
@@ -5040,9 +5039,8 @@
       <c r="BV12" s="80"/>
     </row>
     <row r="13" spans="1:74">
-      <c r="A13" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  8:00:01"</f>
-        <v>8:00:01</v>
+      <c r="A13" s="21">
+        <v>9</v>
       </c>
       <c r="B13" s="23" t="str">
         <f>IF(_sj6_day_all!A10="","",_sj6_day_all!A10)</f>
@@ -5328,10 +5326,9 @@
       <c r="BU13" s="79"/>
       <c r="BV13" s="80"/>
     </row>
-    <row r="14" spans="1:74">
-      <c r="A14" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  9:00:00"</f>
-        <v>9:00:00</v>
+    <row r="14" ht="15" spans="1:74">
+      <c r="A14" s="21">
+        <v>10</v>
       </c>
       <c r="B14" s="23" t="str">
         <f>IF(_sj6_day_all!A11="","",_sj6_day_all!A11)</f>
@@ -5618,9 +5615,8 @@
       <c r="BV14" s="81"/>
     </row>
     <row r="15" spans="1:74">
-      <c r="A15" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  10:00:01"</f>
-        <v>10:00:01</v>
+      <c r="A15" s="21">
+        <v>11</v>
       </c>
       <c r="B15" s="23" t="str">
         <f>IF(_sj6_day_all!A12="","",_sj6_day_all!A12)</f>
@@ -5909,9 +5905,8 @@
       </c>
     </row>
     <row r="16" spans="1:74">
-      <c r="A16" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  11:00:00"</f>
-        <v>11:00:00</v>
+      <c r="A16" s="21">
+        <v>12</v>
       </c>
       <c r="B16" s="23" t="str">
         <f>IF(_sj6_day_all!A13="","",_sj6_day_all!A13)</f>
@@ -6198,9 +6193,8 @@
       <c r="BV16" s="83"/>
     </row>
     <row r="17" spans="1:74">
-      <c r="A17" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  12:00:01"</f>
-        <v>12:00:01</v>
+      <c r="A17" s="21">
+        <v>13</v>
       </c>
       <c r="B17" s="23" t="str">
         <f>IF(_sj6_day_all!A14="","",_sj6_day_all!A14)</f>
@@ -6487,9 +6481,8 @@
       <c r="BV17" s="83"/>
     </row>
     <row r="18" spans="1:74">
-      <c r="A18" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  13:00:00"</f>
-        <v>13:00:00</v>
+      <c r="A18" s="21">
+        <v>14</v>
       </c>
       <c r="B18" s="23" t="str">
         <f>IF(_sj6_day_all!A15="","",_sj6_day_all!A15)</f>
@@ -6775,10 +6768,9 @@
       <c r="BU18" s="79"/>
       <c r="BV18" s="83"/>
     </row>
-    <row r="19" spans="1:74">
-      <c r="A19" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  14:00:01"</f>
-        <v>14:00:01</v>
+    <row r="19" ht="15" spans="1:74">
+      <c r="A19" s="21">
+        <v>15</v>
       </c>
       <c r="B19" s="23" t="str">
         <f>IF(_sj6_day_all!A16="","",_sj6_day_all!A16)</f>
@@ -7065,9 +7057,8 @@
       <c r="BV19" s="84"/>
     </row>
     <row r="20" spans="1:74">
-      <c r="A20" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  15:00:00"</f>
-        <v>15:00:00</v>
+      <c r="A20" s="21">
+        <v>16</v>
       </c>
       <c r="B20" s="23" t="str">
         <f>IF(_sj6_day_all!A17="","",_sj6_day_all!A17)</f>
@@ -7356,9 +7347,8 @@
       </c>
     </row>
     <row r="21" spans="1:74">
-      <c r="A21" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  16:00:01"</f>
-        <v>16:00:01</v>
+      <c r="A21" s="21">
+        <v>17</v>
       </c>
       <c r="B21" s="23" t="str">
         <f>IF(_sj6_day_all!A18="","",_sj6_day_all!A18)</f>
@@ -7645,9 +7635,8 @@
       <c r="BV21" s="80"/>
     </row>
     <row r="22" spans="1:74">
-      <c r="A22" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  17:00:00"</f>
-        <v>17:00:00</v>
+      <c r="A22" s="21">
+        <v>18</v>
       </c>
       <c r="B22" s="23" t="str">
         <f>IF(_sj6_day_all!A19="","",_sj6_day_all!A19)</f>
@@ -7934,9 +7923,8 @@
       <c r="BV22" s="80"/>
     </row>
     <row r="23" spans="1:74">
-      <c r="A23" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  18:00:01"</f>
-        <v>18:00:01</v>
+      <c r="A23" s="21">
+        <v>19</v>
       </c>
       <c r="B23" s="23" t="str">
         <f>IF(_sj6_day_all!A20="","",_sj6_day_all!A20)</f>
@@ -8222,10 +8210,9 @@
       <c r="BU23" s="79"/>
       <c r="BV23" s="80"/>
     </row>
-    <row r="24" spans="1:74">
-      <c r="A24" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  19:00:00"</f>
-        <v>19:00:00</v>
+    <row r="24" ht="15" spans="1:74">
+      <c r="A24" s="21">
+        <v>20</v>
       </c>
       <c r="B24" s="23" t="str">
         <f>IF(_sj6_day_all!A21="","",_sj6_day_all!A21)</f>
@@ -8512,9 +8499,8 @@
       <c r="BV24" s="81"/>
     </row>
     <row r="25" spans="1:74">
-      <c r="A25" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  20:00:01"</f>
-        <v>20:00:01</v>
+      <c r="A25" s="21">
+        <v>21</v>
       </c>
       <c r="B25" s="23" t="str">
         <f>IF(_sj6_day_all!A22="","",_sj6_day_all!A22)</f>
@@ -8803,9 +8789,8 @@
       </c>
     </row>
     <row r="26" spans="1:74">
-      <c r="A26" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  21:00:00"</f>
-        <v>21:00:00</v>
+      <c r="A26" s="21">
+        <v>22</v>
       </c>
       <c r="B26" s="23" t="str">
         <f>IF(_sj6_day_all!A23="","",_sj6_day_all!A23)</f>
@@ -9092,9 +9077,8 @@
       <c r="BV26" s="83"/>
     </row>
     <row r="27" spans="1:74">
-      <c r="A27" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  22:00:01"</f>
-        <v>22:00:01</v>
+      <c r="A27" s="21">
+        <v>23</v>
       </c>
       <c r="B27" s="23" t="str">
         <f>IF(_sj6_day_all!A24="","",_sj6_day_all!A24)</f>
@@ -9381,9 +9365,8 @@
       <c r="BV27" s="83"/>
     </row>
     <row r="28" spans="1:74">
-      <c r="A28" s="21" t="str">
-        <f>IF(_metadata!B4="","",_metadata!B4)&amp;"  23:00:00"</f>
-        <v>23:00:00</v>
+      <c r="A28" s="21">
+        <v>24</v>
       </c>
       <c r="B28" s="24" t="str">
         <f>IF(_sj6_day_all!A25="","",_sj6_day_all!A25)</f>
@@ -9673,307 +9656,373 @@
       <c r="A29" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="41"/>
-      <c r="AC29" s="41"/>
-      <c r="AD29" s="41"/>
-      <c r="AE29" s="41"/>
-      <c r="AF29" s="41"/>
-      <c r="AG29" s="41"/>
-      <c r="AH29" s="41"/>
-      <c r="AI29" s="41"/>
-      <c r="AJ29" s="41"/>
-      <c r="AK29" s="41"/>
-      <c r="AL29" s="41"/>
-      <c r="AM29" s="41"/>
-      <c r="AN29" s="41"/>
-      <c r="AO29" s="41"/>
-      <c r="AP29" s="41"/>
-      <c r="AQ29" s="41"/>
-      <c r="AR29" s="41"/>
-      <c r="AS29" s="41"/>
-      <c r="AT29" s="23"/>
-      <c r="AU29" s="41"/>
-      <c r="AV29" s="41"/>
-      <c r="AW29" s="41"/>
-      <c r="AX29" s="23"/>
-      <c r="AY29" s="23"/>
-      <c r="AZ29" s="23"/>
-      <c r="BA29" s="23"/>
-      <c r="BB29" s="23"/>
-      <c r="BC29" s="23"/>
-      <c r="BD29" s="23"/>
-      <c r="BE29" s="23"/>
-      <c r="BF29" s="23"/>
-      <c r="BG29" s="23"/>
-      <c r="BH29" s="41"/>
-      <c r="BI29" s="41"/>
-      <c r="BJ29" s="41"/>
-      <c r="BK29" s="41"/>
-      <c r="BL29" s="41"/>
-      <c r="BM29" s="41"/>
-      <c r="BN29" s="41"/>
-      <c r="BO29" s="41"/>
-      <c r="BP29" s="41"/>
-      <c r="BQ29" s="41"/>
-      <c r="BR29" s="41"/>
-      <c r="BS29" s="41"/>
-      <c r="BT29" s="72"/>
-      <c r="BU29" s="72"/>
+      <c r="B29" s="23" t="str">
+        <f>IFERROR(AVERAGE(B5:B28),"")</f>
+        <v/>
+      </c>
+      <c r="C29" s="23" t="str">
+        <f t="shared" ref="B29:AG29" si="2">IFERROR(AVERAGE(C5:C28),"")</f>
+        <v/>
+      </c>
+      <c r="D29" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E29" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F29" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G29" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H29" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K29" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L29" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AG29" s="41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH29" s="41" t="str">
+        <f t="shared" ref="AH29:BM29" si="3">IFERROR(AVERAGE(AH5:AH28),"")</f>
+        <v/>
+      </c>
+      <c r="AI29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AJ29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AK29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AL29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AN29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AO29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AR29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AS29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AT29" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AU29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AW29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AX29" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AY29" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AZ29" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BA29" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BB29" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BC29" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BD29" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BE29" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF29" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BG29" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BH29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BI29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BJ29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BK29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BL29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BM29" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BN29" s="41" t="str">
+        <f>IFERROR(AVERAGE(BN5:BN28),"")</f>
+        <v/>
+      </c>
+      <c r="BO29" s="41" t="str">
+        <f>IFERROR(AVERAGE(BO5:BO28),"")</f>
+        <v/>
+      </c>
+      <c r="BP29" s="41" t="str">
+        <f>IFERROR(AVERAGE(BP5:BP28),"")</f>
+        <v/>
+      </c>
+      <c r="BQ29" s="41" t="str">
+        <f>IFERROR(AVERAGE(BQ5:BQ28),"")</f>
+        <v/>
+      </c>
+      <c r="BR29" s="41" t="str">
+        <f>IFERROR(AVERAGE(BR5:BR28),"")</f>
+        <v/>
+      </c>
+      <c r="BS29" s="41" t="str">
+        <f>IFERROR(AVERAGE(BS5:BS28),"")</f>
+        <v/>
+      </c>
+      <c r="BT29" s="72" t="str">
+        <f>IFERROR(AVERAGE(BT5:BT28),"")</f>
+        <v/>
+      </c>
+      <c r="BU29" s="72" t="str">
+        <f>IFERROR(AVERAGE(BU5:BU28),"")</f>
+        <v/>
+      </c>
       <c r="BV29" s="86"/>
     </row>
-    <row r="30" s="7" customFormat="1" spans="1:74">
-      <c r="A30" s="25" t="s">
+    <row r="30" ht="15.75" spans="1:74">
+      <c r="A30" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="41"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="41"/>
-      <c r="AE30" s="41"/>
-      <c r="AF30" s="41"/>
-      <c r="AG30" s="41"/>
-      <c r="AH30" s="41"/>
-      <c r="AI30" s="41"/>
-      <c r="AJ30" s="41"/>
-      <c r="AK30" s="41"/>
-      <c r="AL30" s="41"/>
-      <c r="AM30" s="41"/>
-      <c r="AN30" s="41"/>
-      <c r="AO30" s="41"/>
-      <c r="AP30" s="41"/>
-      <c r="AQ30" s="41"/>
-      <c r="AR30" s="41"/>
-      <c r="AS30" s="41"/>
-      <c r="AT30" s="23"/>
-      <c r="AU30" s="41"/>
-      <c r="AV30" s="41"/>
-      <c r="AW30" s="41"/>
-      <c r="AX30" s="23"/>
-      <c r="AY30" s="23"/>
-      <c r="AZ30" s="23"/>
-      <c r="BA30" s="23"/>
-      <c r="BB30" s="23"/>
-      <c r="BC30" s="23"/>
-      <c r="BD30" s="23"/>
-      <c r="BE30" s="23"/>
-      <c r="BF30" s="23"/>
-      <c r="BG30" s="23"/>
-      <c r="BH30" s="41"/>
-      <c r="BI30" s="41"/>
-      <c r="BJ30" s="41"/>
-      <c r="BK30" s="41"/>
-      <c r="BL30" s="41"/>
-      <c r="BM30" s="41"/>
-      <c r="BN30" s="41"/>
-      <c r="BO30" s="41"/>
-      <c r="BP30" s="41"/>
-      <c r="BQ30" s="41"/>
-      <c r="BR30" s="41"/>
-      <c r="BS30" s="41"/>
-      <c r="BT30" s="72"/>
-      <c r="BU30" s="72"/>
-      <c r="BV30" s="86"/>
-    </row>
-    <row r="31" s="7" customFormat="1" spans="1:74">
-      <c r="A31" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="41"/>
-      <c r="AF31" s="41"/>
-      <c r="AG31" s="41"/>
-      <c r="AH31" s="41"/>
-      <c r="AI31" s="41"/>
-      <c r="AJ31" s="41"/>
-      <c r="AK31" s="41"/>
-      <c r="AL31" s="41"/>
-      <c r="AM31" s="41"/>
-      <c r="AN31" s="41"/>
-      <c r="AO31" s="41"/>
-      <c r="AP31" s="41"/>
-      <c r="AQ31" s="41"/>
-      <c r="AR31" s="41"/>
-      <c r="AS31" s="41"/>
-      <c r="AT31" s="23"/>
-      <c r="AU31" s="41"/>
-      <c r="AV31" s="41"/>
-      <c r="AW31" s="41"/>
-      <c r="AX31" s="23"/>
-      <c r="AY31" s="23"/>
-      <c r="AZ31" s="23"/>
-      <c r="BA31" s="23"/>
-      <c r="BB31" s="23"/>
-      <c r="BC31" s="23"/>
-      <c r="BD31" s="23"/>
-      <c r="BE31" s="23"/>
-      <c r="BF31" s="23"/>
-      <c r="BG31" s="23"/>
-      <c r="BH31" s="41"/>
-      <c r="BI31" s="41"/>
-      <c r="BJ31" s="41"/>
-      <c r="BK31" s="41"/>
-      <c r="BL31" s="41"/>
-      <c r="BM31" s="41"/>
-      <c r="BN31" s="41"/>
-      <c r="BO31" s="41"/>
-      <c r="BP31" s="41"/>
-      <c r="BQ31" s="41"/>
-      <c r="BR31" s="41"/>
-      <c r="BS31" s="41"/>
-      <c r="BT31" s="72"/>
-      <c r="BU31" s="72"/>
-      <c r="BV31" s="86"/>
-    </row>
-    <row r="32" ht="15.75" spans="1:74">
-      <c r="A32" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="27"/>
-      <c r="AF32" s="27"/>
-      <c r="AG32" s="27"/>
-      <c r="AH32" s="27"/>
-      <c r="AI32" s="27"/>
-      <c r="AJ32" s="27"/>
-      <c r="AK32" s="27"/>
-      <c r="AL32" s="27"/>
-      <c r="AM32" s="27"/>
-      <c r="AN32" s="27"/>
-      <c r="AO32" s="27"/>
-      <c r="AP32" s="27"/>
-      <c r="AQ32" s="27"/>
-      <c r="AR32" s="27"/>
-      <c r="AS32" s="27"/>
-      <c r="AT32" s="27"/>
-      <c r="AU32" s="27"/>
-      <c r="AV32" s="27"/>
-      <c r="AW32" s="27"/>
-      <c r="AX32" s="27"/>
-      <c r="AY32" s="27"/>
-      <c r="AZ32" s="27"/>
-      <c r="BA32" s="27"/>
-      <c r="BB32" s="27"/>
-      <c r="BC32" s="27"/>
-      <c r="BD32" s="27"/>
-      <c r="BE32" s="27"/>
-      <c r="BF32" s="27"/>
-      <c r="BG32" s="27"/>
-      <c r="BH32" s="27"/>
-      <c r="BI32" s="27"/>
-      <c r="BJ32" s="27"/>
-      <c r="BK32" s="27"/>
-      <c r="BL32" s="27"/>
-      <c r="BM32" s="27"/>
-      <c r="BN32" s="27"/>
-      <c r="BO32" s="27"/>
-      <c r="BP32" s="27"/>
-      <c r="BQ32" s="27"/>
-      <c r="BR32" s="27"/>
-      <c r="BS32" s="27"/>
-      <c r="BT32" s="27"/>
-      <c r="BU32" s="27"/>
-      <c r="BV32" s="84"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="27"/>
+      <c r="AN30" s="27"/>
+      <c r="AO30" s="27"/>
+      <c r="AP30" s="27"/>
+      <c r="AQ30" s="27"/>
+      <c r="AR30" s="27"/>
+      <c r="AS30" s="27"/>
+      <c r="AT30" s="27"/>
+      <c r="AU30" s="27"/>
+      <c r="AV30" s="27"/>
+      <c r="AW30" s="27"/>
+      <c r="AX30" s="27"/>
+      <c r="AY30" s="27"/>
+      <c r="AZ30" s="27"/>
+      <c r="BA30" s="27"/>
+      <c r="BB30" s="27"/>
+      <c r="BC30" s="27"/>
+      <c r="BD30" s="27"/>
+      <c r="BE30" s="27"/>
+      <c r="BF30" s="27"/>
+      <c r="BG30" s="27"/>
+      <c r="BH30" s="27"/>
+      <c r="BI30" s="27"/>
+      <c r="BJ30" s="27"/>
+      <c r="BK30" s="27"/>
+      <c r="BL30" s="27"/>
+      <c r="BM30" s="27"/>
+      <c r="BN30" s="27"/>
+      <c r="BO30" s="27"/>
+      <c r="BP30" s="27"/>
+      <c r="BQ30" s="27"/>
+      <c r="BR30" s="27"/>
+      <c r="BS30" s="27"/>
+      <c r="BT30" s="27"/>
+      <c r="BU30" s="27"/>
+      <c r="BV30" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="53">
@@ -10009,7 +10058,7 @@
     <mergeCell ref="BF3:BG3"/>
     <mergeCell ref="BH3:BI3"/>
     <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="A32:BU32"/>
+    <mergeCell ref="A30:BU30"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="AT2:AT4"/>
     <mergeCell ref="AU2:AU4"/>
@@ -10029,7 +10078,7 @@
     <mergeCell ref="BV10:BV14"/>
     <mergeCell ref="BV15:BV19"/>
     <mergeCell ref="BV20:BV24"/>
-    <mergeCell ref="BV25:BV32"/>
+    <mergeCell ref="BV25:BV30"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -10050,208 +10099,208 @@
   <sheetData>
     <row r="1" ht="99" spans="1:68">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AR1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AV1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AW1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BD1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BE1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BF1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BG1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BK1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BL1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BM1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BN1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BP1" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -10274,7 +10323,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1">
         <v>6</v>
